--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="DSA" sheetId="1" r:id="rId1"/>
     <sheet name="CN" sheetId="2" r:id="rId2"/>
-    <sheet name="Upload YT" sheetId="3" r:id="rId3"/>
-    <sheet name="mega" sheetId="4" r:id="rId4"/>
+    <sheet name="mega" sheetId="4" r:id="rId3"/>
+    <sheet name="Schedule" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Mathematics</t>
   </si>
@@ -90,9 +90,6 @@
     <t>FFT</t>
   </si>
   <si>
-    <t>CN applied</t>
-  </si>
-  <si>
     <t>seyac81687@febeks.com</t>
   </si>
   <si>
@@ -112,6 +109,78 @@
   </si>
   <si>
     <t>wevepew141@hrandod.com</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>DSA + DBMS + OOPS</t>
+  </si>
+  <si>
+    <t>DSA + OS</t>
+  </si>
+  <si>
+    <t>DSA + OS + Aptitude</t>
+  </si>
+  <si>
+    <t>DSA + CN + Aptitude</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>DSA Revision + Projects</t>
+  </si>
+  <si>
+    <t>DSA Upsolving + CN + Aptitude + Projects</t>
+  </si>
+  <si>
+    <t>Aptitude + DBMS + OOPS + Projects</t>
   </si>
 </sst>
 </file>
@@ -588,32 +657,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -627,27 +673,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -657,4 +703,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>